--- a/streams/docs/slice_fission/numbers.xlsx
+++ b/streams/docs/slice_fission/numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="22600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FMRadio" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="ChannelVocoder" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="channelvocoder_1" localSheetId="2">ChannelVocoder!$A$3:$D$36</definedName>
+    <definedName name="channelvocoder_1" localSheetId="2">ChannelVocoder!$A$3:$D$37</definedName>
     <definedName name="filterbank" localSheetId="1">FilterBank!$A$3:$E$42</definedName>
   </definedNames>
   <calcPr calcId="130405" concurrentCalc="0"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="27">
   <si>
     <t>FMRadio4</t>
   </si>
@@ -135,24 +135,48 @@
   <si>
     <t>ChannelVocoder12</t>
   </si>
+  <si>
+    <t>ChannelVocoder12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="206"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="206"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -212,6 +236,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:numRef>
               <c:f>FMRadio!$D$3:$D$6</c:f>
@@ -291,26 +322,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Perfect</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>FMRadio!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="372646760"/>
-        <c:axId val="372649928"/>
+        <c:axId val="408790456"/>
+        <c:axId val="408785832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372646760"/>
+        <c:axId val="408790456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372649928"/>
+        <c:crossAx val="408785832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372649928"/>
+        <c:axId val="408785832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,7 +384,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372646760"/>
+        <c:crossAx val="408790456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -361,6 +427,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:numRef>
               <c:f>FMRadio!$D$3:$D$6</c:f>
@@ -441,25 +514,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="378352712"/>
-        <c:axId val="372381256"/>
+        <c:axId val="471883864"/>
+        <c:axId val="471886920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378352712"/>
+        <c:axId val="471883864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372381256"/>
+        <c:crossAx val="471886920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372381256"/>
+        <c:axId val="471886920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +540,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378352712"/>
+        <c:crossAx val="471883864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -510,6 +583,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:numRef>
               <c:f>FMRadio!$D$3:$D$6</c:f>
@@ -583,32 +663,32 @@
                   <c:v>33.66338663386634</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>57.49649859943978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="373062248"/>
-        <c:axId val="373083800"/>
+        <c:axId val="471915080"/>
+        <c:axId val="471918136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373062248"/>
+        <c:axId val="471915080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373083800"/>
+        <c:crossAx val="471918136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373083800"/>
+        <c:axId val="471918136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +696,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373062248"/>
+        <c:crossAx val="471915080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -659,6 +739,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dPt>
+            <c:idx val="3"/>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>FMRadio!$D$3:$D$6</c:f>
@@ -718,40 +801,46 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>FMRadio!$G$54:$G$55</c:f>
+              <c:f>FMRadio!$G$54:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.160156985871271</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.63749372174787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.44023735518508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.58341708542714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="378443992"/>
-        <c:axId val="375753752"/>
+        <c:axId val="471936568"/>
+        <c:axId val="471939624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378443992"/>
+        <c:axId val="471936568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375753752"/>
+        <c:crossAx val="471939624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375753752"/>
+        <c:axId val="471939624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +848,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378443992"/>
+        <c:crossAx val="471936568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -882,26 +971,54 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Perfect</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>FilterBank!$D$7:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="384438744"/>
-        <c:axId val="384281880"/>
+        <c:axId val="471993096"/>
+        <c:axId val="471996152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="384438744"/>
+        <c:axId val="471993096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384281880"/>
+        <c:crossAx val="471996152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384281880"/>
+        <c:axId val="471996152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +1026,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384438744"/>
+        <c:crossAx val="471993096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,26 +1149,54 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Perfect</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>FilterBank!$D$17:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="430049912"/>
-        <c:axId val="429956744"/>
+        <c:axId val="472026200"/>
+        <c:axId val="472029256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430049912"/>
+        <c:axId val="472026200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429956744"/>
+        <c:crossAx val="472029256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429956744"/>
+        <c:axId val="472029256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1204,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430049912"/>
+        <c:crossAx val="472026200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1182,26 +1327,54 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Perfect</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>FilterBank!$D$27:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="430026472"/>
-        <c:axId val="430058440"/>
+        <c:axId val="472058088"/>
+        <c:axId val="472061144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430026472"/>
+        <c:axId val="472058088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430058440"/>
+        <c:crossAx val="472061144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430058440"/>
+        <c:axId val="472061144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1382,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430026472"/>
+        <c:crossAx val="472058088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1332,26 +1505,54 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Perfect</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>FilterBank!$D$37:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431497112"/>
-        <c:axId val="431482296"/>
+        <c:axId val="472089912"/>
+        <c:axId val="472092968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431497112"/>
+        <c:axId val="472089912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431482296"/>
+        <c:crossAx val="472092968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431482296"/>
+        <c:axId val="472092968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1560,197 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431497112"/>
+        <c:crossAx val="472089912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChannelVocoder!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-O2--unroll0--fixedpoint--profile--dup1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>ChannelVocoder!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChannelVocoder!$G$30:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.112355465221319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.199493530584441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.39178480838429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.5928954266265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChannelVocoder!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-O2--unroll0--fixedpoint--profile--dupthresh75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>ChannelVocoder!$G$34:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.224469885789733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.82761221662987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.45866674780175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.06947608200455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                  <a:alpha val="76000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ChannelVocoder!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="472154552"/>
+        <c:axId val="472157480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472154552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="472157480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472157480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="472154552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,6 +2011,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1959,8 +2385,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2005,14 +2431,14 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>C2*C2</f>
+        <f t="shared" ref="D2:D17" si="0">C2*C2</f>
         <v>1</v>
       </c>
       <c r="E2">
         <v>41966</v>
       </c>
       <c r="F2">
-        <f>100000/E2</f>
+        <f t="shared" ref="F2:F17" si="1">100000/E2</f>
         <v>2.3828813801648954</v>
       </c>
       <c r="G2">
@@ -2031,18 +2457,18 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>C3*C3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E3">
         <v>16335</v>
       </c>
       <c r="F3">
-        <f>100000/E3</f>
+        <f t="shared" si="1"/>
         <v>6.1218243036424855</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G17" si="0">F3/$F$2</f>
+        <f t="shared" ref="G3:G17" si="2">F3/$F$2</f>
         <v>2.5690847872666054</v>
       </c>
     </row>
@@ -2057,18 +2483,18 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>C4*C4</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E4">
         <v>4734</v>
       </c>
       <c r="F4">
-        <f>100000/E4</f>
+        <f t="shared" si="1"/>
         <v>21.123785382340515</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.8648077735530197</v>
       </c>
     </row>
@@ -2083,18 +2509,18 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <f>C5*C5</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E5">
         <v>2438</v>
       </c>
       <c r="F5">
-        <f>100000/E5</f>
+        <f t="shared" si="1"/>
         <v>41.017227235438881</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.213289581624281</v>
       </c>
     </row>
@@ -2109,18 +2535,18 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <f>C6*C6</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E6">
         <v>1618</v>
       </c>
       <c r="F6">
-        <f>100000/E6</f>
+        <f t="shared" si="1"/>
         <v>61.804697156983934</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.936959208899879</v>
       </c>
     </row>
@@ -2135,18 +2561,18 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>C7*C7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7">
         <v>12178</v>
       </c>
       <c r="F7">
-        <f>100000/E7</f>
+        <f t="shared" si="1"/>
         <v>8.2115289866973225</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4460502545573983</v>
       </c>
     </row>
@@ -2161,18 +2587,18 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <f>C8*C8</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E8">
         <v>2897</v>
       </c>
       <c r="F8">
-        <f>100000/E8</f>
+        <f t="shared" si="1"/>
         <v>34.518467380048328</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14.486020020711081</v>
       </c>
     </row>
@@ -2187,18 +2613,18 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <f>C9*C9</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E9">
         <v>1285</v>
       </c>
       <c r="F9">
-        <f>100000/E9</f>
+        <f t="shared" si="1"/>
         <v>77.821011673151745</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.658365758754861</v>
       </c>
     </row>
@@ -2213,18 +2639,18 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <f>C10*C10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E10">
         <v>12173</v>
       </c>
       <c r="F10">
-        <f>100000/E10</f>
+        <f t="shared" si="1"/>
         <v>8.2149018319231093</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4474657027848519</v>
       </c>
     </row>
@@ -2239,18 +2665,18 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <f>C11*C11</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E11">
         <v>2744</v>
       </c>
       <c r="F11">
-        <f>100000/E11</f>
+        <f t="shared" si="1"/>
         <v>36.443148688046648</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.293731778425656</v>
       </c>
     </row>
@@ -2265,18 +2691,18 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <f>C12*C12</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E12">
         <v>1285</v>
       </c>
       <c r="F12">
-        <f>100000/E12</f>
+        <f t="shared" si="1"/>
         <v>77.821011673151745</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.658365758754861</v>
       </c>
     </row>
@@ -2291,18 +2717,18 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <f>C13*C13</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E13">
         <v>724</v>
       </c>
       <c r="F13">
-        <f>100000/E13</f>
+        <f t="shared" si="1"/>
         <v>138.12154696132598</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57.964088397790057</v>
       </c>
     </row>
@@ -2317,18 +2743,18 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f>C14*C14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E14">
         <v>10878</v>
       </c>
       <c r="F14">
-        <f>100000/E14</f>
+        <f t="shared" si="1"/>
         <v>9.1928663357234779</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.857878286449715</v>
       </c>
     </row>
@@ -2343,18 +2769,18 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <f>C15*C15</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E15">
         <v>2761</v>
       </c>
       <c r="F15">
-        <f>100000/E15</f>
+        <f t="shared" si="1"/>
         <v>36.218761318362915</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.19956537486418</v>
       </c>
     </row>
@@ -2369,18 +2795,18 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <f>C16*C16</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E16">
         <v>1281</v>
       </c>
       <c r="F16">
-        <f>100000/E16</f>
+        <f t="shared" si="1"/>
         <v>78.064012490241993</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.760343481654957</v>
       </c>
     </row>
@@ -2395,18 +2821,18 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <f>C17*C17</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E17">
         <v>732</v>
       </c>
       <c r="F17">
-        <f>100000/E17</f>
+        <f t="shared" si="1"/>
         <v>136.61202185792351</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57.330601092896181</v>
       </c>
     </row>
@@ -2424,14 +2850,14 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <f>C19*C19</f>
+        <f t="shared" ref="D19:D32" si="3">C19*C19</f>
         <v>1</v>
       </c>
       <c r="E19">
         <v>74496</v>
       </c>
       <c r="F19">
-        <f>100000/E19</f>
+        <f t="shared" ref="F19:F32" si="4">100000/E19</f>
         <v>1.3423539518900343</v>
       </c>
       <c r="G19">
@@ -2450,18 +2876,18 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <f>C20*C20</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E20">
         <v>30215</v>
       </c>
       <c r="F20">
-        <f>100000/E20</f>
+        <f t="shared" si="4"/>
         <v>3.3096144299189145</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G32" si="1">F20/$F$19</f>
+        <f t="shared" ref="G20:G32" si="5">F20/$F$19</f>
         <v>2.4655303657123948</v>
       </c>
     </row>
@@ -2476,18 +2902,18 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <f>C21*C21</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E21">
         <v>8413</v>
       </c>
       <c r="F21">
-        <f>100000/E21</f>
+        <f t="shared" si="4"/>
         <v>11.886366337810532</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.8548674670153353</v>
       </c>
     </row>
@@ -2502,18 +2928,18 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <f>C22*C22</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E22">
         <v>5345</v>
       </c>
       <c r="F22">
-        <f>100000/E22</f>
+        <f t="shared" si="4"/>
         <v>18.709073900841908</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13.937511693171189</v>
       </c>
     </row>
@@ -2528,18 +2954,18 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <f>C23*C23</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="E23">
         <v>2803</v>
       </c>
       <c r="F23">
-        <f>100000/E23</f>
+        <f t="shared" si="4"/>
         <v>35.676061362825543</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>26.57723867285052</v>
       </c>
     </row>
@@ -2554,18 +2980,18 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <f>C24*C24</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E24">
         <v>20129</v>
       </c>
       <c r="F24">
-        <f>100000/E24</f>
+        <f t="shared" si="4"/>
         <v>4.9679566794177559</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.7009290078990515</v>
       </c>
     </row>
@@ -2580,18 +3006,18 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f>C25*C25</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E25">
         <v>4943</v>
       </c>
       <c r="F25">
-        <f>100000/E25</f>
+        <f t="shared" si="4"/>
         <v>20.230629172567266</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15.071009508395711</v>
       </c>
     </row>
@@ -2606,18 +3032,18 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <f>C26*C26</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E26">
         <v>2245</v>
       </c>
       <c r="F26">
-        <f>100000/E26</f>
+        <f t="shared" si="4"/>
         <v>44.543429844097993</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33.18307349665924</v>
       </c>
     </row>
@@ -2632,18 +3058,18 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <f>C27*C27</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E27">
         <v>20138</v>
       </c>
       <c r="F27">
-        <f>100000/E27</f>
+        <f t="shared" si="4"/>
         <v>4.965736418710895</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.6992750024828687</v>
       </c>
     </row>
@@ -2658,18 +3084,18 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <f>C28*C28</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E28">
         <v>4946</v>
       </c>
       <c r="F28">
-        <f>100000/E28</f>
+        <f t="shared" si="4"/>
         <v>20.218358269308531</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15.061868176304085</v>
       </c>
     </row>
@@ -2684,18 +3110,18 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <f>C29*C29</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E29">
         <v>20233</v>
       </c>
       <c r="F29">
-        <f>100000/E29</f>
+        <f t="shared" si="4"/>
         <v>4.9424207977067169</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.6819057974595961</v>
       </c>
     </row>
@@ -2710,18 +3136,18 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <f>C30*C30</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E30">
         <v>4948</v>
       </c>
       <c r="F30">
-        <f>100000/E30</f>
+        <f t="shared" si="4"/>
         <v>20.210185933710591</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15.055780113177043</v>
       </c>
     </row>
@@ -2736,18 +3162,18 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <f>C31*C31</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E31">
         <v>2245</v>
       </c>
       <c r="F31">
-        <f>100000/E31</f>
+        <f t="shared" si="4"/>
         <v>44.543429844097993</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33.18307349665924</v>
       </c>
     </row>
@@ -2762,18 +3188,18 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <f>C32*C32</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="E32">
         <v>1235</v>
       </c>
       <c r="F32">
-        <f>100000/E32</f>
+        <f t="shared" si="4"/>
         <v>80.97165991902834</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60.320647773279354</v>
       </c>
     </row>
@@ -2791,14 +3217,14 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f>C34*C34</f>
+        <f t="shared" ref="D34:D45" si="6">C34*C34</f>
         <v>1</v>
       </c>
       <c r="E34">
         <v>82105</v>
       </c>
       <c r="F34">
-        <f>100000/E34</f>
+        <f t="shared" ref="F34:F45" si="7">100000/E34</f>
         <v>1.2179526216430181</v>
       </c>
       <c r="G34">
@@ -2817,18 +3243,18 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <f>C35*C35</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E35">
         <v>31167</v>
       </c>
       <c r="F35">
-        <f>100000/E35</f>
+        <f t="shared" si="7"/>
         <v>3.2085218339910804</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G44" si="2">F35/$F$34</f>
+        <f t="shared" ref="G35:G43" si="8">F35/$F$34</f>
         <v>2.6343568517983766</v>
       </c>
     </row>
@@ -2843,18 +3269,18 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <f>C36*C36</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E36">
         <v>8662</v>
       </c>
       <c r="F36">
-        <f>100000/E36</f>
+        <f t="shared" si="7"/>
         <v>11.544677903486493</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.4787577926575857</v>
       </c>
     </row>
@@ -2869,18 +3295,18 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f>C37*C37</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="E37">
         <v>4933</v>
       </c>
       <c r="F37">
-        <f>100000/E37</f>
+        <f t="shared" si="7"/>
         <v>20.271639975674031</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16.644030002027161</v>
       </c>
     </row>
@@ -2895,18 +3321,18 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <f>C38*C38</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="E38">
         <v>2454</v>
       </c>
       <c r="F38">
-        <f>100000/E38</f>
+        <f t="shared" si="7"/>
         <v>40.749796251018743</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>33.457620211898941</v>
       </c>
     </row>
@@ -2921,18 +3347,18 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <f>C39*C39</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E39">
         <v>23788</v>
       </c>
       <c r="F39">
-        <f>100000/E39</f>
+        <f t="shared" si="7"/>
         <v>4.203800235412813</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.4515301832856902</v>
       </c>
     </row>
@@ -2947,18 +3373,18 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <f>C40*C40</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E40">
         <v>22207</v>
       </c>
       <c r="F40">
-        <f>100000/E40</f>
+        <f t="shared" si="7"/>
         <v>4.5030846129598778</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6972576214707078</v>
       </c>
     </row>
@@ -2973,18 +3399,18 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <f>C41*C41</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E41">
         <v>5619</v>
       </c>
       <c r="F41">
-        <f>100000/E41</f>
+        <f t="shared" si="7"/>
         <v>17.796760989499912</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14.612030610428903</v>
       </c>
     </row>
@@ -2999,18 +3425,18 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <f>C42*C42</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E42">
         <v>22056</v>
       </c>
       <c r="F42">
-        <f>100000/E42</f>
+        <f t="shared" si="7"/>
         <v>4.5339136742836414</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.7225698222705836</v>
       </c>
     </row>
@@ -3025,18 +3451,18 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <f>C43*C43</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E43">
         <v>5716</v>
       </c>
       <c r="F43">
-        <f>100000/E43</f>
+        <f t="shared" si="7"/>
         <v>17.494751574527641</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14.36406578026592</v>
       </c>
     </row>
@@ -3051,14 +3477,14 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <f>C44*C44</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="E44">
         <v>2439</v>
       </c>
       <c r="F44">
-        <f>100000/E44</f>
+        <f t="shared" si="7"/>
         <v>41.00041000410004</v>
       </c>
       <c r="G44">
@@ -3077,16 +3503,19 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <f>C45*C45</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="F45" t="e">
-        <f>100000/E45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" t="e">
+      <c r="E45">
+        <v>1428</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>70.0280112044818</v>
+      </c>
+      <c r="G45">
         <f>F45/$F$34</f>
-        <v>#DIV/0!</v>
+        <v>57.496498599439782</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3103,14 +3532,14 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <f>C47*C47</f>
+        <f t="shared" ref="D47:D57" si="9">C47*C47</f>
         <v>1</v>
       </c>
       <c r="E47">
         <v>132501</v>
       </c>
       <c r="F47">
-        <f>100000/E47</f>
+        <f t="shared" ref="F47:F55" si="10">100000/E47</f>
         <v>0.75471128519784758</v>
       </c>
       <c r="G47">
@@ -3129,18 +3558,18 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <f>C48*C48</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E48">
         <v>48008</v>
       </c>
       <c r="F48">
-        <f>100000/E48</f>
+        <f t="shared" si="10"/>
         <v>2.0829861689718379</v>
       </c>
       <c r="G48">
-        <f t="shared" ref="G48:G57" si="3">F48/$F$47</f>
+        <f t="shared" ref="G48:G57" si="11">F48/$F$47</f>
         <v>2.7599775037493748</v>
       </c>
     </row>
@@ -3155,18 +3584,18 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <f>C49*C49</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="E49">
         <v>13116</v>
       </c>
       <c r="F49">
-        <f>100000/E49</f>
+        <f t="shared" si="10"/>
         <v>7.6242756938090883</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>10.102241537053979</v>
       </c>
     </row>
@@ -3181,18 +3610,18 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <f>C50*C50</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="E50">
         <v>8121</v>
       </c>
       <c r="F50">
-        <f>100000/E50</f>
+        <f t="shared" si="10"/>
         <v>12.313754463735993</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16.315847801994828</v>
       </c>
     </row>
@@ -3207,18 +3636,18 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <f>C51*C51</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="E51">
         <v>4466</v>
       </c>
       <c r="F51">
-        <f>100000/E51</f>
+        <f t="shared" si="10"/>
         <v>22.391401701746528</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>29.668831168831165</v>
       </c>
     </row>
@@ -3233,18 +3662,18 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <f>C52*C52</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E52">
         <v>31818</v>
       </c>
       <c r="F52">
-        <f>100000/E52</f>
+        <f t="shared" si="10"/>
         <v>3.1428751021434409</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>4.1643409390910806</v>
       </c>
     </row>
@@ -3259,18 +3688,18 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f>C53*C53</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E53">
         <v>31847</v>
       </c>
       <c r="F53">
-        <f>100000/E53</f>
+        <f t="shared" si="10"/>
         <v>3.1400131880553896</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>4.1605488743052721</v>
       </c>
     </row>
@@ -3285,18 +3714,18 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <f>C54*C54</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E54">
         <v>31850</v>
       </c>
       <c r="F54">
-        <f>100000/E54</f>
+        <f t="shared" si="10"/>
         <v>3.1397174254317113</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>4.1601569858712715</v>
       </c>
     </row>
@@ -3311,18 +3740,18 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f>C55*C55</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="E55">
         <v>7964</v>
       </c>
       <c r="F55">
-        <f>100000/E55</f>
+        <f t="shared" si="10"/>
         <v>12.556504269211452</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16.637493721747866</v>
       </c>
     </row>
@@ -3337,16 +3766,19 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <f>C56*C56</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="F56" t="e">
-        <f t="shared" ref="F56:F57" si="4">100000/E56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="E56">
+        <v>3539</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:F57" si="12">100000/E56</f>
+        <v>28.256569652444192</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="11"/>
+        <v>37.440237355185076</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3360,16 +3792,19 @@
         <v>8</v>
       </c>
       <c r="D57">
-        <f>C57*C57</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="F57" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="E57">
+        <v>1990</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="12"/>
+        <v>50.251256281407038</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="11"/>
+        <v>66.583417085427143</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3815,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3395,7 +3829,9 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3445,7 +3881,7 @@
         <v>32358</v>
       </c>
       <c r="F2">
-        <f>100000/E2</f>
+        <f t="shared" ref="F2:F10" si="0">100000/E2</f>
         <v>3.0904258606836024</v>
       </c>
       <c r="G2">
@@ -3464,18 +3900,18 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D40" si="0">C3*C3</f>
+        <f t="shared" ref="D3:D40" si="1">C3*C3</f>
         <v>4</v>
       </c>
       <c r="E3">
         <v>12202</v>
       </c>
       <c r="F3">
-        <f>100000/E3</f>
+        <f t="shared" si="0"/>
         <v>8.1953778069168983</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">F3/$F$2</f>
+        <f t="shared" ref="G3:G10" si="2">F3/$F$2</f>
         <v>2.6518603507621696</v>
       </c>
     </row>
@@ -3490,18 +3926,18 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E4">
         <v>3750</v>
       </c>
       <c r="F4">
-        <f>100000/E4</f>
+        <f t="shared" si="0"/>
         <v>26.666666666666668</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6288</v>
       </c>
     </row>
@@ -3516,18 +3952,18 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E5">
         <v>1687</v>
       </c>
       <c r="F5">
-        <f>100000/E5</f>
+        <f t="shared" si="0"/>
         <v>59.276822762299943</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.180794309425014</v>
       </c>
     </row>
@@ -3542,18 +3978,18 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E6">
         <v>1293</v>
       </c>
       <c r="F6">
-        <f>100000/E6</f>
+        <f t="shared" si="0"/>
         <v>77.33952049497293</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.025522041763338</v>
       </c>
     </row>
@@ -3568,18 +4004,18 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E7">
         <v>9430</v>
       </c>
       <c r="F7">
-        <f>100000/E7</f>
+        <f t="shared" si="0"/>
         <v>10.604453870625663</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.431389183457052</v>
       </c>
     </row>
@@ -3594,18 +4030,18 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E8">
         <v>2108</v>
       </c>
       <c r="F8">
-        <f>100000/E8</f>
+        <f t="shared" si="0"/>
         <v>47.438330170777988</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.350094876660341</v>
       </c>
     </row>
@@ -3620,18 +4056,18 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E9">
         <v>991</v>
       </c>
       <c r="F9">
-        <f>100000/E9</f>
+        <f t="shared" si="0"/>
         <v>100.90817356205852</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.651866801210893</v>
       </c>
     </row>
@@ -3646,18 +4082,18 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E10">
         <v>602</v>
       </c>
       <c r="F10">
-        <f>100000/E10</f>
+        <f t="shared" si="0"/>
         <v>166.11295681063123</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.750830564784053</v>
       </c>
     </row>
@@ -3675,14 +4111,14 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E12">
         <v>131475</v>
       </c>
       <c r="F12">
-        <f>100000/E12</f>
+        <f t="shared" ref="F12:F20" si="3">100000/E12</f>
         <v>0.7606008746910059</v>
       </c>
       <c r="G12">
@@ -3701,14 +4137,14 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E13">
         <v>48727</v>
       </c>
       <c r="F13">
-        <f>100000/E13</f>
+        <f t="shared" si="3"/>
         <v>2.0522502924456667</v>
       </c>
       <c r="G13">
@@ -3727,18 +4163,18 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E14">
         <v>12057</v>
       </c>
       <c r="F14">
-        <f>100000/E14</f>
+        <f t="shared" si="3"/>
         <v>8.2939371319565396</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G20" si="2">F14/$F$12</f>
+        <f t="shared" ref="G14:G20" si="4">F14/$F$12</f>
         <v>10.90445384423986</v>
       </c>
     </row>
@@ -3753,18 +4189,18 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E15">
         <v>6391</v>
       </c>
       <c r="F15">
-        <f>100000/E15</f>
+        <f t="shared" si="3"/>
         <v>15.647003598810828</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.571897981536537</v>
       </c>
     </row>
@@ -3779,18 +4215,18 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E16">
         <v>3607</v>
       </c>
       <c r="F16">
-        <f>100000/E16</f>
+        <f t="shared" si="3"/>
         <v>27.72387025228722</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36.449958414194626</v>
       </c>
     </row>
@@ -3805,18 +4241,18 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E17">
         <v>34776</v>
       </c>
       <c r="F17">
-        <f>100000/E17</f>
+        <f t="shared" si="3"/>
         <v>2.8755463538072235</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.7806245686680469</v>
       </c>
     </row>
@@ -3831,18 +4267,18 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E18">
         <v>9354</v>
       </c>
       <c r="F18">
-        <f>100000/E18</f>
+        <f t="shared" si="3"/>
         <v>10.690613641223006</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.055484284797947</v>
       </c>
     </row>
@@ -3857,18 +4293,18 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E19">
         <v>4352</v>
       </c>
       <c r="F19">
-        <f>100000/E19</f>
+        <f t="shared" si="3"/>
         <v>22.977941176470587</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.210248161764703</v>
       </c>
     </row>
@@ -3883,18 +4319,18 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E20">
         <v>2339</v>
       </c>
       <c r="F20">
-        <f>100000/E20</f>
+        <f t="shared" si="3"/>
         <v>42.753313381787088</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.209918768704576</v>
       </c>
     </row>
@@ -3912,14 +4348,14 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E22">
         <v>64645</v>
       </c>
       <c r="F22">
-        <f>100000/E22</f>
+        <f t="shared" ref="F22:F30" si="5">100000/E22</f>
         <v>1.5469100471807564</v>
       </c>
       <c r="G22">
@@ -3938,18 +4374,18 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E23">
         <v>23903</v>
       </c>
       <c r="F23">
-        <f>100000/E23</f>
+        <f t="shared" si="5"/>
         <v>4.1835752834372251</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G30" si="3">F23/$F$22</f>
+        <f t="shared" ref="G23:G30" si="6">F23/$F$22</f>
         <v>2.7044722419779941</v>
       </c>
     </row>
@@ -3964,18 +4400,18 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E24">
         <v>7258</v>
       </c>
       <c r="F24">
-        <f>100000/E24</f>
+        <f t="shared" si="5"/>
         <v>13.777900248002204</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.9067236153210256</v>
       </c>
     </row>
@@ -3990,18 +4426,18 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E25">
         <v>3292</v>
       </c>
       <c r="F25">
-        <f>100000/E25</f>
+        <f t="shared" si="5"/>
         <v>30.376670716889429</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.636998784933173</v>
       </c>
     </row>
@@ -4016,18 +4452,18 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E26">
         <v>2057</v>
       </c>
       <c r="F26">
-        <f>100000/E26</f>
+        <f t="shared" si="5"/>
         <v>48.614487117160913</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31.426835196888671</v>
       </c>
     </row>
@@ -4042,18 +4478,18 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E27">
         <v>19052</v>
       </c>
       <c r="F27">
-        <f>100000/E27</f>
+        <f t="shared" si="5"/>
         <v>5.2487927776611381</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3930820911190427</v>
       </c>
     </row>
@@ -4068,18 +4504,18 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E28">
         <v>4085</v>
       </c>
       <c r="F28">
-        <f>100000/E28</f>
+        <f t="shared" si="5"/>
         <v>24.479804161566708</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.824969400244798</v>
       </c>
     </row>
@@ -4094,18 +4530,18 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E29">
         <v>1872</v>
       </c>
       <c r="F29">
-        <f>100000/E29</f>
+        <f t="shared" si="5"/>
         <v>53.418803418803421</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>34.532585470085472</v>
       </c>
     </row>
@@ -4120,18 +4556,18 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E30">
         <v>1104</v>
       </c>
       <c r="F30">
-        <f>100000/E30</f>
+        <f t="shared" si="5"/>
         <v>90.579710144927532</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.555253623188406</v>
       </c>
     </row>
@@ -4149,14 +4585,14 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E32">
         <v>261059</v>
       </c>
       <c r="F32">
-        <f>100000/E32</f>
+        <f t="shared" ref="F32:F40" si="7">100000/E32</f>
         <v>0.38305517143634199</v>
       </c>
       <c r="G32">
@@ -4175,18 +4611,18 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E33">
         <v>103795</v>
       </c>
       <c r="F33">
-        <f>100000/E33</f>
+        <f t="shared" si="7"/>
         <v>0.96343754516113489</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G40" si="4">F33/$F$32</f>
+        <f t="shared" ref="G33:G40" si="8">F33/$F$32</f>
         <v>2.515140421022207</v>
       </c>
     </row>
@@ -4201,18 +4637,18 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E34">
         <v>24681</v>
       </c>
       <c r="F34">
-        <f>100000/E34</f>
+        <f t="shared" si="7"/>
         <v>4.0516996880191236</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.577326688545844</v>
       </c>
     </row>
@@ -4227,18 +4663,18 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E35">
         <v>13972</v>
       </c>
       <c r="F35">
-        <f>100000/E35</f>
+        <f t="shared" si="7"/>
         <v>7.1571714858288003</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18.684440309189807</v>
       </c>
     </row>
@@ -4253,18 +4689,18 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E36">
         <v>6532</v>
       </c>
       <c r="F36">
-        <f>100000/E36</f>
+        <f t="shared" si="7"/>
         <v>15.309246785058175</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>39.966166564605018</v>
       </c>
     </row>
@@ -4279,18 +4715,18 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E37">
         <v>67004</v>
       </c>
       <c r="F37">
-        <f>100000/E37</f>
+        <f t="shared" si="7"/>
         <v>1.4924482120470419</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.8961703778878869</v>
       </c>
     </row>
@@ -4305,18 +4741,18 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E38">
         <v>17249</v>
       </c>
       <c r="F38">
-        <f>100000/E38</f>
+        <f t="shared" si="7"/>
         <v>5.7974375326105863</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.13473244825787</v>
       </c>
     </row>
@@ -4331,18 +4767,18 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E39">
         <v>8307</v>
       </c>
       <c r="F39">
-        <f>100000/E39</f>
+        <f t="shared" si="7"/>
         <v>12.038040207054291</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.426387384133861</v>
       </c>
     </row>
@@ -4357,18 +4793,18 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E40">
         <v>5013</v>
       </c>
       <c r="F40">
-        <f>100000/E40</f>
+        <f t="shared" si="7"/>
         <v>19.948134849391582</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>52.07640135647317</v>
       </c>
     </row>
@@ -4380,7 +4816,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4393,10 +4828,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4438,14 +4873,14 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>C2*C2</f>
+        <f t="shared" ref="D2:D8" si="0">C2*C2</f>
         <v>1</v>
       </c>
       <c r="E2">
         <v>442647</v>
       </c>
       <c r="F2">
-        <f>100000/E2</f>
+        <f t="shared" ref="F2:F8" si="1">100000/E2</f>
         <v>0.22591365128420615</v>
       </c>
       <c r="G2">
@@ -4464,18 +4899,18 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>C3*C3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E3">
         <v>250002</v>
       </c>
       <c r="F3">
-        <f>100000/E3</f>
+        <f t="shared" si="1"/>
         <v>0.39999680002559979</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">F3/$F$2</f>
+        <f t="shared" ref="G3:G8" si="2">F3/$F$2</f>
         <v>1.7705738354093166</v>
       </c>
     </row>
@@ -4490,18 +4925,18 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>C4*C4</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E4">
         <v>118598</v>
       </c>
       <c r="F4">
-        <f>100000/E4</f>
+        <f t="shared" si="1"/>
         <v>0.84318453936828619</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7323310679775377</v>
       </c>
     </row>
@@ -4516,18 +4951,18 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <f>C5*C5</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E5">
         <v>117307</v>
       </c>
       <c r="F5">
-        <f>100000/E5</f>
+        <f t="shared" si="1"/>
         <v>0.85246404732880388</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7734065315795307</v>
       </c>
     </row>
@@ -4542,18 +4977,18 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f>C6*C6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E6">
         <v>165454</v>
       </c>
       <c r="F6">
-        <f>100000/E6</f>
+        <f t="shared" si="1"/>
         <v>0.60439759691515471</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6753478308170249</v>
       </c>
     </row>
@@ -4568,18 +5003,18 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <f>C7*C7</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E7">
         <v>81133</v>
       </c>
       <c r="F7">
-        <f>100000/E7</f>
+        <f t="shared" si="1"/>
         <v>1.2325440942649724</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.4558194569410725</v>
       </c>
     </row>
@@ -4594,18 +5029,18 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <f>C8*C8</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E8">
         <v>45479</v>
       </c>
       <c r="F8">
-        <f>100000/E8</f>
+        <f t="shared" si="1"/>
         <v>2.1988170364343982</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.7329976472657709</v>
       </c>
     </row>
@@ -4623,14 +5058,14 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f>C10*C10</f>
+        <f t="shared" ref="D10:D18" si="3">C10*C10</f>
         <v>1</v>
       </c>
       <c r="E10">
         <v>477718</v>
       </c>
       <c r="F10">
-        <f>100000/E10</f>
+        <f t="shared" ref="F10:F18" si="4">100000/E10</f>
         <v>0.20932851598641877</v>
       </c>
       <c r="G10">
@@ -4649,18 +5084,18 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <f>C11*C11</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E11">
         <v>229765</v>
       </c>
       <c r="F11">
-        <f>100000/E11</f>
+        <f t="shared" si="4"/>
         <v>0.43522729745609645</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G18" si="1">F11/$F$10</f>
+        <f t="shared" ref="G11:G18" si="5">F11/$F$10</f>
         <v>2.0791591408613148</v>
       </c>
     </row>
@@ -4675,18 +5110,18 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <f>C12*C12</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E12">
         <v>61291</v>
       </c>
       <c r="F12">
-        <f>100000/E12</f>
+        <f t="shared" si="4"/>
         <v>1.6315609143267364</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.7942601687033983</v>
       </c>
     </row>
@@ -4701,18 +5136,18 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <f>C13*C13</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E13">
         <v>25505</v>
       </c>
       <c r="F13">
-        <f>100000/E13</f>
+        <f t="shared" si="4"/>
         <v>3.9207998431680062</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.730366594785334</v>
       </c>
     </row>
@@ -4727,18 +5162,18 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <f>C14*C14</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="E14">
         <v>23334</v>
       </c>
       <c r="F14">
-        <f>100000/E14</f>
+        <f t="shared" si="4"/>
         <v>4.2855918402331366</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>20.473043627324934</v>
       </c>
     </row>
@@ -4753,18 +5188,18 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>C15*C15</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E15">
         <v>152194</v>
       </c>
       <c r="F15">
-        <f>100000/E15</f>
+        <f t="shared" si="4"/>
         <v>0.6570561257342602</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.138875382735193</v>
       </c>
     </row>
@@ -4779,18 +5214,18 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <f>C16*C16</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E16">
         <v>40596</v>
       </c>
       <c r="F16">
-        <f>100000/E16</f>
+        <f t="shared" si="4"/>
         <v>2.4632968765395606</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.767612572667257</v>
       </c>
     </row>
@@ -4805,18 +5240,18 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <f>C17*C17</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E17">
         <v>16564</v>
       </c>
       <c r="F17">
-        <f>100000/E17</f>
+        <f t="shared" si="4"/>
         <v>6.0371890847621348</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>28.840738951943973</v>
       </c>
     </row>
@@ -4831,18 +5266,18 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <f>C18*C18</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="E18">
         <v>15809</v>
       </c>
       <c r="F18">
-        <f>100000/E18</f>
+        <f t="shared" si="4"/>
         <v>6.3255107849958883</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>30.218103611866656</v>
       </c>
     </row>
@@ -4860,14 +5295,14 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <f>C20*C20</f>
+        <f t="shared" ref="D20:D26" si="6">C20*C20</f>
         <v>1</v>
       </c>
       <c r="E20">
         <v>858140</v>
       </c>
       <c r="F20">
-        <f>100000/E20</f>
+        <f t="shared" ref="F20:F26" si="7">100000/E20</f>
         <v>0.11653110215116415</v>
       </c>
       <c r="G20">
@@ -4886,18 +5321,18 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <f>C21*C21</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E21">
         <v>386924</v>
       </c>
       <c r="F21">
-        <f>100000/E21</f>
+        <f t="shared" si="7"/>
         <v>0.2584486875975644</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G26" si="2">F21/$F$20</f>
+        <f t="shared" ref="G21:G26" si="8">F21/$F$20</f>
         <v>2.2178515677497392</v>
       </c>
     </row>
@@ -4912,18 +5347,18 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <f>C22*C22</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E22">
         <v>120868</v>
       </c>
       <c r="F22">
-        <f>100000/E22</f>
+        <f t="shared" si="7"/>
         <v>0.82734884336631698</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.0998113644637124</v>
       </c>
     </row>
@@ -4938,18 +5373,18 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <f>C23*C23</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="E23">
         <v>119090</v>
       </c>
       <c r="F23">
-        <f>100000/E23</f>
+        <f t="shared" si="7"/>
         <v>0.83970106642035436</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.2058107313796285</v>
       </c>
     </row>
@@ -4964,18 +5399,18 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <f>C24*C24</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E24">
         <v>262361</v>
       </c>
       <c r="F24">
-        <f>100000/E24</f>
+        <f t="shared" si="7"/>
         <v>0.38115421118230225</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.2708367478398084</v>
       </c>
     </row>
@@ -4990,18 +5425,18 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f>C25*C25</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E25">
         <v>83197</v>
       </c>
       <c r="F25">
-        <f>100000/E25</f>
+        <f t="shared" si="7"/>
         <v>1.2019664170583073</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10.314554611344159</v>
       </c>
     </row>
@@ -5016,18 +5451,18 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <f>C26*C26</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="E26">
         <v>80312</v>
       </c>
       <c r="F26">
-        <f>100000/E26</f>
+        <f t="shared" si="7"/>
         <v>1.2451439386393066</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10.685078195039345</v>
       </c>
     </row>
@@ -5035,55 +5470,32 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f>C28*C28</f>
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>935351</v>
-      </c>
-      <c r="F28">
-        <f>100000/E28</f>
-        <v>0.10691173687738614</v>
-      </c>
-      <c r="G28">
-        <f>F28/$F$28</f>
-        <v>1</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <f>C29*C29</f>
-        <v>4</v>
+        <f t="shared" ref="D29:D37" si="9">C29*C29</f>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>442800</v>
+        <v>935351</v>
       </c>
       <c r="F29">
-        <f>100000/E29</f>
-        <v>0.22583559168925021</v>
+        <f t="shared" ref="F29:F37" si="10">100000/E29</f>
+        <v>0.10691173687738614</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G35" si="3">F29/$F$28</f>
-        <v>2.1123554652213188</v>
+        <f>F29/$F$29</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5094,22 +5506,22 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <f>C30*C30</f>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>129919</v>
+        <v>442800</v>
       </c>
       <c r="F30">
-        <f>100000/E30</f>
-        <v>0.76971035799228749</v>
+        <f t="shared" si="10"/>
+        <v>0.22583559168925021</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>7.1994935305844407</v>
+        <f t="shared" ref="G30:G36" si="11">F30/$F$29</f>
+        <v>2.1123554652213188</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5120,22 +5532,22 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <f>C31*C31</f>
-        <v>36</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>50857</v>
+        <v>129919</v>
       </c>
       <c r="F31">
-        <f>100000/E31</f>
-        <v>1.9662976581394891</v>
+        <f t="shared" si="10"/>
+        <v>0.76971035799228749</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
-        <v>18.391784808384291</v>
+        <f t="shared" si="11"/>
+        <v>7.1994935305844407</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5146,22 +5558,22 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <f>C32*C32</f>
-        <v>64</v>
+        <f t="shared" si="9"/>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>25561</v>
+        <v>50857</v>
       </c>
       <c r="F32">
-        <f>100000/E32</f>
-        <v>3.9122100074331989</v>
+        <f t="shared" si="10"/>
+        <v>1.9662976581394891</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
-        <v>36.592895426626498</v>
+        <f t="shared" si="11"/>
+        <v>18.391784808384291</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5169,25 +5581,25 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <f>C33*C33</f>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
       <c r="E33">
-        <v>290079</v>
+        <v>25561</v>
       </c>
       <c r="F33">
-        <f>100000/E33</f>
-        <v>0.34473367599860727</v>
+        <f t="shared" si="10"/>
+        <v>3.9122100074331989</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
-        <v>3.2244698857897327</v>
+        <f t="shared" si="11"/>
+        <v>36.592895426626498</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5198,22 +5610,22 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <f>C34*C34</f>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>72917</v>
+        <v>290079</v>
       </c>
       <c r="F34">
-        <f>100000/E34</f>
-        <v>1.3714223020694762</v>
+        <f t="shared" si="10"/>
+        <v>0.34473367599860727</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
-        <v>12.827612216629866</v>
+        <f t="shared" si="11"/>
+        <v>3.2244698857897327</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5224,22 +5636,74 @@
         <v>7</v>
       </c>
       <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>72917</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="10"/>
+        <v>1.3714223020694762</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>12.827612216629866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
         <v>6</v>
       </c>
-      <c r="D35">
-        <f>C35*C35</f>
+      <c r="D36">
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>32867</v>
       </c>
-      <c r="F35">
-        <f>100000/E35</f>
+      <c r="F36">
+        <f t="shared" si="10"/>
         <v>3.0425654912221987</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
+      <c r="G36">
+        <f t="shared" si="11"/>
         <v>28.458666747801747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="E37">
+        <v>16682</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>5.9944850737321662</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="12">F37/$F$29</f>
+        <v>56.069476082004549</v>
       </c>
     </row>
   </sheetData>
@@ -5251,7 +5715,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/streams/docs/slice_fission/numbers.xlsx
+++ b/streams/docs/slice_fission/numbers.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="22600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="-420" windowWidth="24800" windowHeight="16660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FMRadio" sheetId="1" r:id="rId1"/>
     <sheet name="FilterBank" sheetId="3" r:id="rId2"/>
     <sheet name="ChannelVocoder" sheetId="5" r:id="rId3"/>
+    <sheet name="FilterBank1_Int" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="channelvocoder_1" localSheetId="2">ChannelVocoder!$A$3:$D$37</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="29">
   <si>
     <t>FMRadio4</t>
   </si>
@@ -160,6 +161,31 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="206"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DupDec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -243,6 +269,18 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>FMRadio!$D$3:$D$6</c:f>
@@ -333,8 +371,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>FMRadio!$D$3:$D$6</c:f>
@@ -358,25 +400,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="408790456"/>
-        <c:axId val="408785832"/>
+        <c:axId val="398231656"/>
+        <c:axId val="398227032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408790456"/>
+        <c:axId val="398231656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408785832"/>
+        <c:crossAx val="398227032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408785832"/>
+        <c:axId val="398227032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +426,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408790456"/>
+        <c:crossAx val="398231656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -392,6 +434,253 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0729317018825884"/>
+          <c:y val="0.0491228070175438"/>
+          <c:w val="0.875720462999679"/>
+          <c:h val="0.848154993783672"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FilterBank1_Int!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DupDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>FilterBank1_Int!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FilterBank1_Int!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.649673202614379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.777158774373258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.68200836820084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.46814404432133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FilterBank1_Int!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-O2--unroll0--fixedpoint--profile--dupthresh75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>FilterBank1_Int!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FilterBank1_Int!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.756388415672912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.12987012987013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.98639455782313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.69565217391304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Perfect</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>FilterBank1_Int!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FilterBank1_Int!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="398729656"/>
+        <c:axId val="398732712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="398729656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="398732712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398732712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="398729656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104527464642459"/>
+          <c:y val="0.0605307362895427"/>
+          <c:w val="0.317534885477445"/>
+          <c:h val="0.317535018648985"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -514,25 +803,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471883864"/>
-        <c:axId val="471886920"/>
+        <c:axId val="398394552"/>
+        <c:axId val="398397608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471883864"/>
+        <c:axId val="398394552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471886920"/>
+        <c:crossAx val="398397608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471886920"/>
+        <c:axId val="398397608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +829,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471883864"/>
+        <c:crossAx val="398394552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,25 +959,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471915080"/>
-        <c:axId val="471918136"/>
+        <c:axId val="398424616"/>
+        <c:axId val="398427672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471915080"/>
+        <c:axId val="398424616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471918136"/>
+        <c:crossAx val="398427672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471918136"/>
+        <c:axId val="398427672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +985,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471915080"/>
+        <c:crossAx val="398424616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -739,9 +1028,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="3"/>
-          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>FMRadio!$D$3:$D$6</c:f>
@@ -799,6 +1085,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:val>
             <c:numRef>
               <c:f>FMRadio!$G$54:$G$57</c:f>
@@ -821,26 +1112,54 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Perfect</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>FMRadio!$D$48:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471936568"/>
-        <c:axId val="471939624"/>
+        <c:axId val="398471480"/>
+        <c:axId val="398474536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471936568"/>
+        <c:axId val="398471480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471939624"/>
+        <c:crossAx val="398474536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471939624"/>
+        <c:axId val="398474536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +1167,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471936568"/>
+        <c:crossAx val="398471480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,25 +1319,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471993096"/>
-        <c:axId val="471996152"/>
+        <c:axId val="398522616"/>
+        <c:axId val="398525672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471993096"/>
+        <c:axId val="398522616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471996152"/>
+        <c:crossAx val="398525672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471996152"/>
+        <c:axId val="398525672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1345,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471993096"/>
+        <c:crossAx val="398522616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,25 +1497,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="472026200"/>
-        <c:axId val="472029256"/>
+        <c:axId val="398555720"/>
+        <c:axId val="398558776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472026200"/>
+        <c:axId val="398555720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472029256"/>
+        <c:crossAx val="398558776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472029256"/>
+        <c:axId val="398558776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1523,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472026200"/>
+        <c:crossAx val="398555720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,25 +1675,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="472058088"/>
-        <c:axId val="472061144"/>
+        <c:axId val="398587608"/>
+        <c:axId val="398590664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472058088"/>
+        <c:axId val="398587608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472061144"/>
+        <c:crossAx val="398590664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472061144"/>
+        <c:axId val="398590664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1701,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472058088"/>
+        <c:crossAx val="398587608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,25 +1853,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="472089912"/>
-        <c:axId val="472092968"/>
+        <c:axId val="398619512"/>
+        <c:axId val="398622568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472089912"/>
+        <c:axId val="398619512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472092968"/>
+        <c:crossAx val="398622568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472092968"/>
+        <c:axId val="398622568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1879,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472089912"/>
+        <c:crossAx val="398619512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,25 +2043,25 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="472154552"/>
-        <c:axId val="472157480"/>
+        <c:axId val="398687848"/>
+        <c:axId val="398690616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472154552"/>
+        <c:axId val="398687848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472157480"/>
+        <c:crossAx val="398690616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472157480"/>
+        <c:axId val="398690616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +2069,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472154552"/>
+        <c:crossAx val="398687848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,6 +2352,41 @@
       <xdr:colOff>825500</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2385,7 +2739,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -3830,7 +4184,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4830,8 +5184,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5722,4 +6076,292 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>C2*C2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5584</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F10" si="0">100000/E2</f>
+        <v>17.908309455587393</v>
+      </c>
+      <c r="G2">
+        <f>F2/$F$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">C3*C3</f>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1530</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>65.359477124183002</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="2">F3/$F$2</f>
+        <v>3.649673202614379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>718</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>139.27576601671308</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>7.777158774373258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>478</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>209.20502092050208</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>11.682008368200837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>361</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>277.0083102493075</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>15.468144044321331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1174</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>85.178875638841561</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4.7563884156729124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>308</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>324.6753246753247</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>18.129870129870131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>147</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>680.27210884353747</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>37.986394557823132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1086.9565217391305</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>60.695652173913047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>